--- a/api_boot/src/test/resources/Testdata.xlsx
+++ b/api_boot/src/test/resources/Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sridh\Desktop\vidhya\API\api_boot\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D3D29D-B066-4317-9659-E01B08844468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C6D732-3A22-482C-A23D-D90B82FF76B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3204" yWindow="3204" windowWidth="17280" windowHeight="8880" xr2:uid="{AE15731B-D55D-445F-A088-543D3393C996}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="28">
   <si>
     <t>operation</t>
   </si>
@@ -61,55 +61,49 @@
     <t>apilname</t>
   </si>
   <si>
-    <t>t1eam511er0iear@gmail.com</t>
-  </si>
-  <si>
     <t>12-q</t>
   </si>
   <si>
     <t>usa</t>
   </si>
   <si>
+    <t>lessthancontact@gmail.com</t>
+  </si>
+  <si>
+    <t>team2zok0@gmail.com</t>
+  </si>
+  <si>
+    <t>te1aojfew1f8@gmail.com</t>
+  </si>
+  <si>
+    <t>8419231234</t>
+  </si>
+  <si>
+    <t>te111@gmail.com</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>CRUD</t>
+  </si>
+  <si>
+    <t>1er0ieag1dwr11@gmail.com</t>
+  </si>
+  <si>
+    <t>1113329909</t>
+  </si>
+  <si>
     <t>POST</t>
   </si>
   <si>
-    <t>lessthancontact@gmail.com</t>
-  </si>
-  <si>
-    <t>team2zok0@gmail.com</t>
-  </si>
-  <si>
-    <t>te1aojfew1f8@gmail.com</t>
-  </si>
-  <si>
-    <t>CRUD1</t>
-  </si>
-  <si>
-    <t>POST1</t>
-  </si>
-  <si>
-    <t>DEL1</t>
-  </si>
-  <si>
-    <t>PUT1</t>
-  </si>
-  <si>
     <t>PUT</t>
   </si>
   <si>
     <t>DELETE</t>
   </si>
   <si>
-    <t>8419231234</t>
-  </si>
-  <si>
-    <t>te111@gmail.com</t>
-  </si>
-  <si>
     <t>GET</t>
-  </si>
-  <si>
-    <t>status</t>
   </si>
 </sst>
 </file>
@@ -962,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4B7D11-1501-47F9-80F4-D7BB51CA608A}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="A12" sqref="A12:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1008,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="L1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1018,14 +1012,14 @@
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1">
-        <v>1193055292</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -1034,7 +1028,7 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2">
         <v>12345</v>
@@ -1043,7 +1037,7 @@
         <v>15697</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2">
         <v>200</v>
@@ -1057,13 +1051,13 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -1072,7 +1066,7 @@
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3">
         <v>12345</v>
@@ -1081,7 +1075,7 @@
         <v>15697</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="L3">
         <v>201</v>
@@ -1098,10 +1092,10 @@
         <v>232735509</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -1110,7 +1104,7 @@
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4">
         <v>12345</v>
@@ -1119,7 +1113,7 @@
         <v>15697</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L4">
         <v>409</v>
@@ -1136,10 +1130,10 @@
         <v>12320450931</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -1148,7 +1142,7 @@
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5">
         <v>12345</v>
@@ -1157,7 +1151,7 @@
         <v>15697</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L5">
         <v>200</v>
@@ -1174,10 +1168,10 @@
         <v>1232045093</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1186,7 +1180,7 @@
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6">
         <v>12345</v>
@@ -1195,7 +1189,7 @@
         <v>15697</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L6">
         <v>400</v>
@@ -1212,10 +1206,10 @@
         <v>1232045093</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -1224,7 +1218,7 @@
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7">
         <v>12345</v>
@@ -1233,7 +1227,7 @@
         <v>20395</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L7">
         <v>200</v>
@@ -1250,10 +1244,10 @@
         <v>1232045093</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
@@ -1262,7 +1256,7 @@
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8">
         <v>12345</v>
@@ -1271,7 +1265,7 @@
         <v>15703</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L8">
         <v>409</v>
@@ -1288,10 +1282,10 @@
         <v>1232045093</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -1300,7 +1294,7 @@
         <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9">
         <v>12345</v>
@@ -1309,7 +1303,7 @@
         <v>15703</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L9">
         <v>200</v>
@@ -1326,10 +1320,10 @@
         <v>1232045093</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
@@ -1338,7 +1332,7 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10">
         <v>12345</v>
@@ -1347,7 +1341,7 @@
         <v>16739</v>
       </c>
       <c r="K10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L10">
         <v>200</v>
@@ -1361,13 +1355,13 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
@@ -1376,7 +1370,7 @@
         <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11">
         <v>12345</v>
@@ -1385,9 +1379,351 @@
         <v>20656</v>
       </c>
       <c r="K11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12">
+        <v>12345</v>
+      </c>
+      <c r="J12">
+        <v>15697</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>232735509</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13">
+        <v>12345</v>
+      </c>
+      <c r="J13">
+        <v>15697</v>
+      </c>
+      <c r="K13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>12320450931</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14">
+        <v>12345</v>
+      </c>
+      <c r="J14">
+        <v>15697</v>
+      </c>
+      <c r="K14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1232045093</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15">
+        <v>12345</v>
+      </c>
+      <c r="J15">
+        <v>15697</v>
+      </c>
+      <c r="K15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1232045093</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16">
+        <v>12345</v>
+      </c>
+      <c r="J16">
+        <v>20395</v>
+      </c>
+      <c r="K16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1232045093</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17">
+        <v>12345</v>
+      </c>
+      <c r="J17">
+        <v>15703</v>
+      </c>
+      <c r="K17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1232045093</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18">
+        <v>12345</v>
+      </c>
+      <c r="J18">
+        <v>15703</v>
+      </c>
+      <c r="K18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1232045093</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19">
+        <v>12345</v>
+      </c>
+      <c r="J19">
+        <v>16739</v>
+      </c>
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20">
+        <v>12345</v>
+      </c>
+      <c r="J20">
+        <v>20656</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20">
         <v>200</v>
       </c>
     </row>
@@ -1395,6 +1731,9 @@
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{2DCE256B-A666-4378-93F3-A8DB4ED5DF3B}"/>
     <hyperlink ref="D11" r:id="rId2" xr:uid="{B1BACEE3-2A35-433A-AC0E-D8CF517C418F}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{1A9F6441-B5F1-4081-90F2-6622FA4EBC9D}"/>
+    <hyperlink ref="D12" r:id="rId4" xr:uid="{ABB34E67-AE6D-4055-90B4-1751E7213EF5}"/>
+    <hyperlink ref="D20" r:id="rId5" xr:uid="{60A15DB2-CC13-452D-8547-AABFDAFCAA44}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
